--- a/data/Andante/forum-client_structure.xlsx
+++ b/data/Andante/forum-client_structure.xlsx
@@ -813,25 +813,37 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>pageNumber</t>
+  </si>
+  <si>
+    <t>pageSize</t>
+  </si>
+  <si>
     <t>topicId</t>
   </si>
   <si>
-    <t>pageSize</t>
-  </si>
-  <si>
-    <t>pageNumber</t>
+    <t>content</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>content</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
-    <t>title</t>
+    <t>post</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>likesAmount</t>
   </si>
   <si>
     <t>modificationTimestamp</t>
@@ -840,18 +852,6 @@
     <t>creationTimestamp</t>
   </si>
   <si>
-    <t>likesAmount</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>query</t>
   </si>
   <si>
@@ -864,64 +864,64 @@
     <t>long</t>
   </si>
   <si>
+    <t>likedResponses</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>responses</t>
+  </si>
+  <si>
     <t>likedPosts</t>
   </si>
   <si>
-    <t>responses</t>
-  </si>
-  <si>
     <t>surname</t>
   </si>
   <si>
-    <t>likedResponses</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>posts</t>
   </si>
   <si>
+    <t>imageUrl</t>
+  </si>
+  <si>
     <t>parentId</t>
   </si>
   <si>
-    <t>imageUrl</t>
-  </si>
-  <si>
     <t>sortingOrder</t>
   </si>
   <si>
     <t>postId</t>
   </si>
   <si>
+    <t>OLDEST_FIRST</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
     <t>NEWEST_FIRST</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
     <t>REVERSE_ALPHABETICAL</t>
   </si>
   <si>
-    <t>OLDEST_FIRST</t>
-  </si>
-  <si>
     <t>ALPHABETICAL</t>
   </si>
   <si>
+    <t>parentTopicId</t>
+  </si>
+  <si>
     <t>postsAmount</t>
   </si>
   <si>
-    <t>parentTopicId</t>
+    <t>isLiked</t>
   </si>
   <si>
     <t>topic</t>
-  </si>
-  <si>
-    <t>isLiked</t>
   </si>
   <si>
     <t>responsesAmount</t>
@@ -17155,7 +17155,7 @@
         <v>169</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>88</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -17183,7 +17183,7 @@
         <v>169</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -17191,7 +17191,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>169</v>
@@ -17211,7 +17211,7 @@
         <v>169</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -17239,7 +17239,7 @@
         <v>169</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -17267,7 +17267,7 @@
         <v>169</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -17275,13 +17275,13 @@
         <v>38</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -17295,7 +17295,7 @@
         <v>169</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>153</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
@@ -17309,7 +17309,7 @@
         <v>169</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>153</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -17323,7 +17323,7 @@
         <v>169</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
@@ -17331,7 +17331,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>169</v>
@@ -17345,13 +17345,13 @@
         <v>41</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
@@ -17359,13 +17359,13 @@
         <v>41</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>13</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
@@ -17379,7 +17379,7 @@
         <v>169</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -17393,7 +17393,7 @@
         <v>169</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>94</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
@@ -17401,13 +17401,13 @@
         <v>50</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -17415,7 +17415,7 @@
         <v>50</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>169</v>
@@ -17429,13 +17429,13 @@
         <v>50</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -17491,7 +17491,7 @@
         <v>169</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
@@ -17499,13 +17499,13 @@
         <v>82</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -17533,7 +17533,7 @@
         <v>169</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>119</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -17555,7 +17555,7 @@
         <v>91</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>169</v>
@@ -17589,7 +17589,7 @@
         <v>169</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>13</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -17625,7 +17625,7 @@
         <v>101</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>169</v>
@@ -17639,13 +17639,13 @@
         <v>101</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -17653,7 +17653,7 @@
         <v>101</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>169</v>
@@ -17673,7 +17673,7 @@
         <v>169</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
@@ -17687,7 +17687,7 @@
         <v>169</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41">
@@ -17695,13 +17695,13 @@
         <v>103</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -17709,7 +17709,7 @@
         <v>103</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>169</v>
@@ -17723,7 +17723,7 @@
         <v>103</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>169</v>
@@ -17737,7 +17737,7 @@
         <v>94</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>169</v>
@@ -17751,13 +17751,13 @@
         <v>94</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>13</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -17765,7 +17765,7 @@
         <v>94</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>169</v>
@@ -17779,7 +17779,7 @@
         <v>94</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>169</v>
@@ -17793,13 +17793,13 @@
         <v>94</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>119</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -17807,13 +17807,13 @@
         <v>94</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>13</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50">
@@ -17821,13 +17821,13 @@
         <v>94</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>119</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -17835,7 +17835,7 @@
         <v>94</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>169</v>
@@ -17849,13 +17849,13 @@
         <v>129</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>52</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53">
@@ -17863,13 +17863,13 @@
         <v>129</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>217</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
@@ -17891,7 +17891,7 @@
         <v>129</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>169</v>
@@ -17947,13 +17947,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -17961,13 +17961,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61">
@@ -17975,7 +17975,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>169</v>
@@ -17989,7 +17989,7 @@
         <v>138</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>169</v>
@@ -18003,7 +18003,7 @@
         <v>138</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>169</v>
@@ -18023,7 +18023,7 @@
         <v>169</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65">
@@ -18031,13 +18031,13 @@
         <v>138</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -18087,7 +18087,7 @@
         <v>44</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>169</v>
@@ -18101,13 +18101,13 @@
         <v>44</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71">
@@ -18115,13 +18115,13 @@
         <v>44</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
@@ -18129,7 +18129,7 @@
         <v>44</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>169</v>
@@ -18143,13 +18143,13 @@
         <v>44</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74">
@@ -18157,7 +18157,7 @@
         <v>44</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>169</v>
@@ -18171,13 +18171,13 @@
         <v>44</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76">
@@ -18185,13 +18185,13 @@
         <v>44</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -18311,13 +18311,13 @@
         <v>186</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>119</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
@@ -18325,13 +18325,13 @@
         <v>186</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87">
@@ -18339,13 +18339,13 @@
         <v>186</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88">
@@ -18353,13 +18353,13 @@
         <v>186</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -18367,13 +18367,13 @@
         <v>186</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90">
@@ -18395,13 +18395,13 @@
         <v>194</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>13</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92">
@@ -18409,13 +18409,13 @@
         <v>194</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>52</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93">
@@ -18429,7 +18429,7 @@
         <v>169</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
@@ -18437,13 +18437,13 @@
         <v>194</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>186</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95">
@@ -18451,13 +18451,13 @@
         <v>194</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>198</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96">
@@ -18465,13 +18465,13 @@
         <v>194</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97">
@@ -18485,7 +18485,7 @@
         <v>169</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>94</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
@@ -18493,13 +18493,13 @@
         <v>194</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99">
@@ -18507,13 +18507,13 @@
         <v>194</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>153</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -18521,13 +18521,13 @@
         <v>194</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>153</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101">
@@ -18535,13 +18535,13 @@
         <v>194</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102">
@@ -18549,7 +18549,7 @@
         <v>208</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>169</v>
@@ -18577,13 +18577,13 @@
         <v>208</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105">
@@ -18591,13 +18591,13 @@
         <v>208</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106">
@@ -18605,7 +18605,7 @@
         <v>133</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>169</v>
@@ -18619,7 +18619,7 @@
         <v>133</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>169</v>
@@ -18633,13 +18633,13 @@
         <v>133</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>217</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109">
@@ -18647,13 +18647,13 @@
         <v>133</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>13</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110">
@@ -18661,13 +18661,13 @@
         <v>145</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
@@ -18675,7 +18675,7 @@
         <v>145</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>169</v>
@@ -18695,7 +18695,7 @@
         <v>169</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113">
@@ -18703,7 +18703,7 @@
         <v>145</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>169</v>
@@ -18717,13 +18717,13 @@
         <v>191</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115">
@@ -18731,7 +18731,7 @@
         <v>191</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>169</v>
@@ -18745,13 +18745,13 @@
         <v>191</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>13</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117">
@@ -18759,7 +18759,7 @@
         <v>191</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>169</v>
@@ -18773,7 +18773,7 @@
         <v>191</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>169</v>
@@ -18787,13 +18787,13 @@
         <v>191</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120">
@@ -18807,7 +18807,7 @@
         <v>169</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121">
@@ -18815,13 +18815,13 @@
         <v>40</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122">
@@ -18913,7 +18913,7 @@
         <v>89</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>169</v>
@@ -18927,7 +18927,7 @@
         <v>89</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>169</v>
@@ -18941,7 +18941,7 @@
         <v>16</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>169</v>
@@ -18955,7 +18955,7 @@
         <v>16</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>169</v>
@@ -18969,7 +18969,7 @@
         <v>16</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>169</v>
@@ -19025,13 +19025,13 @@
         <v>199</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="137">
@@ -19039,13 +19039,13 @@
         <v>199</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="138">
@@ -19053,13 +19053,13 @@
         <v>199</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>52</v>
+        <v>186</v>
       </c>
     </row>
     <row r="139">
@@ -19067,13 +19067,13 @@
         <v>199</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>88</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140">
@@ -19081,13 +19081,13 @@
         <v>199</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
     <row r="141">
@@ -19095,13 +19095,13 @@
         <v>199</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>153</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142">
@@ -19109,13 +19109,13 @@
         <v>199</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>153</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143">
@@ -19123,13 +19123,13 @@
         <v>199</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144">
@@ -19137,13 +19137,13 @@
         <v>199</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>186</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145">
@@ -19151,13 +19151,13 @@
         <v>199</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
@@ -19165,13 +19165,13 @@
         <v>199</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>119</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147">
@@ -19221,7 +19221,7 @@
         <v>213</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>169</v>
@@ -19235,13 +19235,13 @@
         <v>213</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>164</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152">
@@ -19263,13 +19263,13 @@
         <v>213</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>52</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154">
@@ -19277,7 +19277,7 @@
         <v>34</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>169</v>
@@ -19291,13 +19291,13 @@
         <v>34</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156">
@@ -19305,7 +19305,7 @@
         <v>34</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>169</v>
@@ -19319,7 +19319,7 @@
         <v>34</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>169</v>
@@ -19333,13 +19333,13 @@
         <v>34</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>169</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="159">
@@ -19389,7 +19389,7 @@
         <v>217</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>6</v>
@@ -19403,7 +19403,7 @@
         <v>217</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>6</v>
